--- a/气泡流水线/单周期硬布线控制器表达式自动生成.xlsx
+++ b/气泡流水线/单周期硬布线控制器表达式自动生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23016" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -988,13 +988,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1008,11 +1001,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1032,8 +1055,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,7 +1072,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,74 +1128,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,31 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,31 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,12 +1260,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1326,7 +1272,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,31 +1380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,37 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,15 +1620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1644,17 +1635,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,19 +1688,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,23 +1712,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,10 +1723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,133 +1735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2396,8 +2396,8 @@
   </sheetPr>
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2648,7 +2648,7 @@
       <c r="AH2" s="24"/>
       <c r="AI2" s="24"/>
       <c r="AJ2" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="24">
         <v>1</v>
@@ -2753,7 +2753,7 @@
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="28">
         <v>1</v>
@@ -2858,7 +2858,7 @@
       <c r="AH4" s="24"/>
       <c r="AI4" s="24"/>
       <c r="AJ4" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="24">
         <v>1</v>
@@ -5052,7 +5052,9 @@
       <c r="AJ25" s="28">
         <v>1</v>
       </c>
-      <c r="AK25" s="28"/>
+      <c r="AK25" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="48">
@@ -6798,13 +6800,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P2:P26"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -7111,8 +7113,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="41">
-        <f>真值表!AJ2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="41">
         <f>真值表!AK2</f>
@@ -7257,8 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="42">
-        <f>真值表!AJ3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="42">
         <f>真值表!AK3</f>
@@ -7399,8 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="41">
-        <f>真值表!AJ4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="41">
         <f>真值表!AK4</f>
@@ -8572,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="16.8" hidden="1" spans="1:36">
+    <row r="13" ht="16.8" spans="1:36">
       <c r="A13" s="27" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -8864,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="16.8" hidden="1" spans="1:36">
+    <row r="15" ht="16.8" spans="1:36">
       <c r="A15" s="27" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -9010,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.8" hidden="1" spans="1:36">
+    <row r="16" ht="16.8" spans="1:36">
       <c r="A16" s="23" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -9448,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="16.8" hidden="1" spans="1:36">
+    <row r="19" ht="16.8" spans="1:36">
       <c r="A19" s="27" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -9594,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.8" hidden="1" spans="1:36">
+    <row r="20" ht="16.8" spans="1:36">
       <c r="A20" s="23" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -9740,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.8" hidden="1" spans="1:36">
+    <row r="21" ht="16.8" spans="1:36">
       <c r="A21" s="27" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -9886,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.8" hidden="1" spans="1:36">
+    <row r="22" ht="16.8" spans="1:36">
       <c r="A22" s="23" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -10032,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.8" hidden="1" spans="1:36">
+    <row r="23" ht="16.8" spans="1:36">
       <c r="A23" s="27" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -10178,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.8" hidden="1" spans="1:36">
+    <row r="24" ht="16.8" spans="1:36">
       <c r="A24" s="23" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -10321,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.8" hidden="1" spans="1:36">
+    <row r="25" ht="16.8" spans="1:36">
       <c r="A25" s="27" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -10460,8 +10459,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="42">
-        <f>真值表!AK25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="16.8" spans="1:36">
@@ -10609,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="16.8" hidden="1" spans="1:36">
+    <row r="27" ht="16.8" spans="1:36">
       <c r="A27" s="27" t="str">
         <f>真值表!B27</f>
         <v>XORI</v>
@@ -10755,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.8" hidden="1" spans="1:36">
+    <row r="28" ht="16.8" spans="1:36">
       <c r="A28" s="23" t="str">
         <f>真值表!B28</f>
         <v>SB</v>
@@ -10898,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.8" hidden="1" spans="1:36">
+    <row r="29" ht="16.8" spans="1:36">
       <c r="A29" s="27" t="str">
         <f>真值表!B29</f>
         <v>BGEZ</v>
@@ -11044,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.8" hidden="1" spans="1:36">
+    <row r="30" ht="16.8" spans="1:36">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -11082,7 +11080,7 @@
       <c r="AI30" s="41"/>
       <c r="AJ30" s="41"/>
     </row>
-    <row r="31" ht="16.8" hidden="1" spans="1:36">
+    <row r="31" ht="16.8" spans="1:36">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -11120,7 +11118,7 @@
       <c r="AI31" s="42"/>
       <c r="AJ31" s="42"/>
     </row>
-    <row r="32" ht="16.8" hidden="1" spans="1:36">
+    <row r="32" ht="16.8" spans="1:36">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -11158,7 +11156,7 @@
       <c r="AI32" s="41"/>
       <c r="AJ32" s="41"/>
     </row>
-    <row r="33" ht="16.8" hidden="1" spans="1:36">
+    <row r="33" ht="16.8" spans="1:36">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
@@ -11196,7 +11194,7 @@
       <c r="AI33" s="42"/>
       <c r="AJ33" s="42"/>
     </row>
-    <row r="34" ht="16.8" hidden="1" spans="1:36">
+    <row r="34" ht="16.8" spans="1:36">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -11234,7 +11232,7 @@
       <c r="AI34" s="41"/>
       <c r="AJ34" s="41"/>
     </row>
-    <row r="35" ht="16.8" hidden="1" spans="1:36">
+    <row r="35" ht="16.8" spans="1:36">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -11272,7 +11270,7 @@
       <c r="AI35" s="42"/>
       <c r="AJ35" s="42"/>
     </row>
-    <row r="36" ht="16.8" hidden="1" spans="1:36">
+    <row r="36" ht="16.8" spans="1:36">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -13025,11 +13023,6 @@
     <protectedRange sqref="A1:C1" name="区域1"/>
   </protectedRanges>
   <autoFilter ref="A1:AJ36">
-    <filterColumn colId="35">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="P1">

--- a/气泡流水线/单周期硬布线控制器表达式自动生成.xlsx
+++ b/气泡流水线/单周期硬布线控制器表达式自动生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23256" windowHeight="9647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -839,10 +839,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -988,6 +988,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -995,14 +1024,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,7 +1039,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1054,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,9 +1062,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,14 +1092,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1072,44 +1101,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,6 +1118,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,13 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,61 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,73 +1260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1290,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,17 +1620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,32 +1633,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1685,11 +1653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,16 +1691,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,133 +1735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2396,8 +2396,8 @@
   </sheetPr>
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD18"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6805,8 +6805,8 @@
   </sheetPr>
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6825,12 +6825,13 @@
     <col min="13" max="13" width="15.5555555555556" style="18" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="19.7777777777778" style="18" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="17.5555555555556" style="18" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="47.6666666666667" style="18" customWidth="1"/>
-    <col min="17" max="20" width="4.66666666666667" style="18" customWidth="1"/>
-    <col min="21" max="21" width="13.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="9" customWidth="1"/>
-    <col min="33" max="36" width="9" style="19"/>
+    <col min="16" max="16" width="47.6666666666667" style="18" hidden="1" customWidth="1"/>
+    <col min="17" max="20" width="4.66666666666667" style="18" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.2222222222222" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13" hidden="1" customWidth="1"/>
+    <col min="23" max="32" width="9" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="9" style="19" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="1" ht="26.4" spans="1:36">
